--- a/[MVBA]AutoTest/Documents/Src/BlackboxTest/Adorner_Pen.xlsx
+++ b/[MVBA]AutoTest/Documents/Src/BlackboxTest/Adorner_Pen.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WuKe\Desktop\Viewsonic-AutoTest\[MVBA]AutoTest\Documents\Src\BlackboxTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WuKe\ViewSonic Dropbox\吳耀宗\PC\Desktop\Viewsonic-AutoTest\[MVBA]AutoTest\Documents\Src\BlackboxTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED8C182-ED4B-4FE6-8435-90942DEC0986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67CCC63-B1BC-4B06-ABF7-7ADB3255205C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="727" xr2:uid="{3AD15B05-8935-4E97-8032-C5A5EA7865ED}"/>
+    <workbookView xWindow="19090" yWindow="-1870" windowWidth="25820" windowHeight="14020" tabRatio="727" firstSheet="2" activeTab="12" xr2:uid="{3AD15B05-8935-4E97-8032-C5A5EA7865ED}"/>
   </bookViews>
   <sheets>
-    <sheet name="Case 1-1" sheetId="1" r:id="rId1"/>
-    <sheet name="Case 1-2" sheetId="2" r:id="rId2"/>
-    <sheet name="Case 1-3" sheetId="3" r:id="rId3"/>
-    <sheet name="Case 1-4" sheetId="4" r:id="rId4"/>
-    <sheet name="Case 1-5" sheetId="5" r:id="rId5"/>
-    <sheet name="Case 1-6" sheetId="6" r:id="rId6"/>
-    <sheet name="Case 1-7" sheetId="7" r:id="rId7"/>
-    <sheet name="Case 1-8" sheetId="8" r:id="rId8"/>
-    <sheet name="Case 1-9" sheetId="9" r:id="rId9"/>
-    <sheet name="Case 1-10" sheetId="10" r:id="rId10"/>
-    <sheet name="Case 1-11" sheetId="11" r:id="rId11"/>
-    <sheet name="Case 1-12" sheetId="12" r:id="rId12"/>
-    <sheet name="Case 1-13" sheetId="13" r:id="rId13"/>
+    <sheet name="Case 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Case 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Case 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Case 4" sheetId="4" r:id="rId4"/>
+    <sheet name="Case 5" sheetId="5" r:id="rId5"/>
+    <sheet name="Case 6" sheetId="6" r:id="rId6"/>
+    <sheet name="Case 7" sheetId="7" r:id="rId7"/>
+    <sheet name="Case 8" sheetId="8" r:id="rId8"/>
+    <sheet name="Case 9" sheetId="9" r:id="rId9"/>
+    <sheet name="Case 10" sheetId="10" r:id="rId10"/>
+    <sheet name="Case 11" sheetId="11" r:id="rId11"/>
+    <sheet name="Case 12" sheetId="12" r:id="rId12"/>
+    <sheet name="Case 13" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -911,7 +911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDFBCA44-DB1E-4C36-A70B-715657BAB8AE}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1391,7 +1391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9687CF-CDD1-4033-8D37-2614A62D0CF8}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
